--- a/tables/2_Supplementary_TMT_GO_Analysis.xlsx
+++ b/tables/2_Supplementary_TMT_GO_Analysis.xlsx
@@ -2792,31 +2792,31 @@
         <v>21</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000000000000000190342325447723</v>
+        <v>0.000000000000000171713382691555</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00000000000431201504069272</v>
+        <v>0.00000000000388999497149448</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00000000000431201504069272</v>
+        <v>0.00000000000388999497149448</v>
       </c>
       <c r="I2" t="n">
         <v>15</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0993377483443709</v>
+        <v>0.1</v>
       </c>
       <c r="K2" t="n">
         <v>0.00661813368630046</v>
       </c>
       <c r="L2" t="n">
-        <v>15.0099337748344</v>
+        <v>15.11</v>
       </c>
       <c r="M2" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O2" t="n">
         <v>0.75</v>
@@ -2848,31 +2848,31 @@
         <v>21</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000000000000000637931323938536</v>
+        <v>0.000000000000000575683847327228</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0000000000144516962125036</v>
+        <v>0.000000000013041541877351</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0000000000072258481062518</v>
+        <v>0.00000000000652077093867551</v>
       </c>
       <c r="I3" t="n">
         <v>15</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0993377483443709</v>
+        <v>0.1</v>
       </c>
       <c r="K3" t="n">
         <v>0.00694904037061549</v>
       </c>
       <c r="L3" t="n">
-        <v>14.2951750236518</v>
+        <v>14.3904761904762</v>
       </c>
       <c r="M3" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O3" t="n">
         <v>0.714285714285714</v>
@@ -2904,31 +2904,31 @@
         <v>21</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00000000000116918003073311</v>
+        <v>0.00000000000103934924592633</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0000000264866044162278</v>
+        <v>0.000000023545417817215</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00000000882886813874261</v>
+        <v>0.00000000784847260573832</v>
       </c>
       <c r="I4" t="n">
         <v>18</v>
       </c>
       <c r="J4" t="n">
-        <v>0.119205298013245</v>
+        <v>0.12</v>
       </c>
       <c r="K4" t="n">
         <v>0.0152217074784911</v>
       </c>
       <c r="L4" t="n">
-        <v>7.83126979556579</v>
+        <v>7.88347826086957</v>
       </c>
       <c r="M4" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O4" t="n">
         <v>0.391304347826087</v>
@@ -2960,31 +2960,31 @@
         <v>21</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00000000000181498378376957</v>
+        <v>0.00000000000161397201957939</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0000000411166426375158</v>
+        <v>0.0000000365629221315516</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0000000102791606593789</v>
+        <v>0.00000000914073053288789</v>
       </c>
       <c r="I5" t="n">
         <v>18</v>
       </c>
       <c r="J5" t="n">
-        <v>0.119205298013245</v>
+        <v>0.12</v>
       </c>
       <c r="K5" t="n">
         <v>0.0155526141628061</v>
       </c>
       <c r="L5" t="n">
-        <v>7.66464703395801</v>
+        <v>7.71574468085106</v>
       </c>
       <c r="M5" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N5" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O5" t="n">
         <v>0.382978723404255</v>
@@ -3016,31 +3016,31 @@
         <v>21</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00000000000932901176315343</v>
+        <v>0.00000000000830675616481441</v>
       </c>
       <c r="G6" t="n">
-        <v>0.000000211339432482478</v>
+        <v>0.000000188181254157706</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0000000422678864964956</v>
+        <v>0.0000000376362508315411</v>
       </c>
       <c r="I6" t="n">
         <v>18</v>
       </c>
       <c r="J6" t="n">
-        <v>0.119205298013245</v>
+        <v>0.12</v>
       </c>
       <c r="K6" t="n">
         <v>0.0168762409000662</v>
       </c>
       <c r="L6" t="n">
-        <v>7.06349824698091</v>
+        <v>7.11058823529412</v>
       </c>
       <c r="M6" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O6" t="n">
         <v>0.352941176470588</v>
@@ -3072,31 +3072,31 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0000000000777141903327681</v>
+        <v>0.0000000000731278057843158</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00000176053726779853</v>
+        <v>0.00000165663731223789</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000000293422877966421</v>
+        <v>0.000000276106218706315</v>
       </c>
       <c r="I7" t="n">
         <v>9</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0596026490066225</v>
+        <v>0.06</v>
       </c>
       <c r="K7" t="n">
         <v>0.00363997352746525</v>
       </c>
       <c r="L7" t="n">
-        <v>16.3744732089103</v>
+        <v>16.4836363636364</v>
       </c>
       <c r="M7" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O7" t="n">
         <v>0.818181818181818</v>
@@ -3128,31 +3128,31 @@
         <v>21</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00000000521270888169978</v>
+        <v>0.00000000497256572532101</v>
       </c>
       <c r="G8" t="n">
-        <v>0.000118088707006027</v>
+        <v>0.000112648503941422</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0000168698152865753</v>
+        <v>0.0000160926434202032</v>
       </c>
       <c r="I8" t="n">
         <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0463576158940397</v>
+        <v>0.0466666666666667</v>
       </c>
       <c r="K8" t="n">
         <v>0.00264725347452019</v>
       </c>
       <c r="L8" t="n">
-        <v>17.5115894039735</v>
+        <v>17.6283333333333</v>
       </c>
       <c r="M8" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O8" t="n">
         <v>0.875</v>
@@ -3184,31 +3184,31 @@
         <v>27</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0000000141441415450483</v>
+        <v>0.0000000135821226757086</v>
       </c>
       <c r="G9" t="n">
-        <v>0.000320421382561525</v>
+        <v>0.000307689407095503</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0000400526728201906</v>
+        <v>0.0000384611758869379</v>
       </c>
       <c r="I9" t="n">
         <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0397350993377483</v>
+        <v>0.04</v>
       </c>
       <c r="K9" t="n">
         <v>0.00198544010589014</v>
       </c>
       <c r="L9" t="n">
-        <v>20.0132450331126</v>
+        <v>20.1466666666667</v>
       </c>
       <c r="M9" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
@@ -3240,31 +3240,31 @@
         <v>31</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0000000392639357463288</v>
+        <v>0.0000000337194996285659</v>
       </c>
       <c r="G10" t="n">
-        <v>0.000889485200397333</v>
+        <v>0.000763881544585532</v>
       </c>
       <c r="H10" t="n">
-        <v>0.000098831688933037</v>
+        <v>0.0000848757271761702</v>
       </c>
       <c r="I10" t="n">
         <v>28</v>
       </c>
       <c r="J10" t="n">
-        <v>0.185430463576159</v>
+        <v>0.186666666666667</v>
       </c>
       <c r="K10" t="n">
         <v>0.0605559232296492</v>
       </c>
       <c r="L10" t="n">
-        <v>3.06213585206094</v>
+        <v>3.08255009107468</v>
       </c>
       <c r="M10" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O10" t="n">
         <v>0.153005464480874</v>
@@ -3296,31 +3296,31 @@
         <v>31</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0000000470136529447326</v>
+        <v>0.000000040936111235626</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00106504729380997</v>
+        <v>0.000927366663931871</v>
       </c>
       <c r="H11" t="n">
-        <v>0.000106504729380997</v>
+        <v>0.0000927366663931871</v>
       </c>
       <c r="I11" t="n">
         <v>25</v>
       </c>
       <c r="J11" t="n">
-        <v>0.165562913907285</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="K11" t="n">
         <v>0.0499669093315685</v>
       </c>
       <c r="L11" t="n">
-        <v>3.31345116442261</v>
+        <v>3.3355408388521</v>
       </c>
       <c r="M11" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O11" t="n">
         <v>0.165562913907285</v>
@@ -3352,31 +3352,31 @@
         <v>31</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0000000921317826292797</v>
+        <v>0.0000000803584827191337</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0020871534036837</v>
+        <v>0.00182044106751926</v>
       </c>
       <c r="H12" t="n">
-        <v>0.000188850904020947</v>
+        <v>0.000159921269420286</v>
       </c>
       <c r="I12" t="n">
         <v>25</v>
       </c>
       <c r="J12" t="n">
-        <v>0.165562913907285</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="K12" t="n">
         <v>0.0516214427531436</v>
       </c>
       <c r="L12" t="n">
-        <v>3.20725080658856</v>
+        <v>3.22863247863248</v>
       </c>
       <c r="M12" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O12" t="n">
         <v>0.16025641025641</v>
@@ -3408,31 +3408,31 @@
         <v>31</v>
       </c>
       <c r="F13" t="n">
-        <v>0.000000105007623482395</v>
+        <v>0.0000000916201598139245</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00237884270237018</v>
+        <v>0.00207556310042465</v>
       </c>
       <c r="H13" t="n">
-        <v>0.000188850904020947</v>
+        <v>0.000159921269420286</v>
       </c>
       <c r="I13" t="n">
         <v>25</v>
       </c>
       <c r="J13" t="n">
-        <v>0.165562913907285</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="K13" t="n">
         <v>0.0519523494374586</v>
       </c>
       <c r="L13" t="n">
-        <v>3.186822457502</v>
+        <v>3.20806794055202</v>
       </c>
       <c r="M13" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O13" t="n">
         <v>0.159235668789809</v>
@@ -3464,31 +3464,31 @@
         <v>31</v>
       </c>
       <c r="F14" t="n">
-        <v>0.000000108372108778684</v>
+        <v>0.0000000917708352813506</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00245506175227232</v>
+        <v>0.00207897650246372</v>
       </c>
       <c r="H14" t="n">
-        <v>0.000188850904020947</v>
+        <v>0.000159921269420286</v>
       </c>
       <c r="I14" t="n">
         <v>32</v>
       </c>
       <c r="J14" t="n">
-        <v>0.211920529801325</v>
+        <v>0.213333333333333</v>
       </c>
       <c r="K14" t="n">
         <v>0.0794176042356056</v>
       </c>
       <c r="L14" t="n">
-        <v>2.66843267108168</v>
+        <v>2.68622222222222</v>
       </c>
       <c r="M14" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O14" t="n">
         <v>0.133333333333333</v>
@@ -3520,31 +3520,31 @@
         <v>31</v>
       </c>
       <c r="F15" t="n">
-        <v>0.000000279617009379014</v>
+        <v>0.000000241547857240595</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00633444373047218</v>
+        <v>0.00547202515792843</v>
       </c>
       <c r="H15" t="n">
-        <v>0.000452460266462299</v>
+        <v>0.000390858939852031</v>
       </c>
       <c r="I15" t="n">
         <v>28</v>
       </c>
       <c r="J15" t="n">
-        <v>0.185430463576159</v>
+        <v>0.186666666666667</v>
       </c>
       <c r="K15" t="n">
         <v>0.0661813368630046</v>
       </c>
       <c r="L15" t="n">
-        <v>2.80185430463576</v>
+        <v>2.82053333333333</v>
       </c>
       <c r="M15" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N15" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O15" t="n">
         <v>0.14</v>
@@ -3576,31 +3576,31 @@
         <v>31</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00000168295908849712</v>
+        <v>0.00000162770031541923</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0381257551908137</v>
+        <v>0.0368739229455073</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00181551215194351</v>
+        <v>0.0017559010926432</v>
       </c>
       <c r="I16" t="n">
         <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>0.033112582781457</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="K16" t="n">
         <v>0.00198544010589014</v>
       </c>
       <c r="L16" t="n">
-        <v>16.6777041942605</v>
+        <v>16.7888888888889</v>
       </c>
       <c r="M16" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N16" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O16" t="n">
         <v>0.833333333333333</v>
@@ -3632,31 +3632,31 @@
         <v>31</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00000168295908849712</v>
+        <v>0.00000162770031541923</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0381257551908137</v>
+        <v>0.0368739229455073</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00181551215194351</v>
+        <v>0.0017559010926432</v>
       </c>
       <c r="I17" t="n">
         <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>0.033112582781457</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="K17" t="n">
         <v>0.00198544010589014</v>
       </c>
       <c r="L17" t="n">
-        <v>16.6777041942605</v>
+        <v>16.7888888888889</v>
       </c>
       <c r="M17" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N17" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O17" t="n">
         <v>0.833333333333333</v>
@@ -3688,31 +3688,31 @@
         <v>31</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00000168295908849712</v>
+        <v>0.00000162770031541923</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0381257551908137</v>
+        <v>0.0368739229455073</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00181551215194351</v>
+        <v>0.0017559010926432</v>
       </c>
       <c r="I18" t="n">
         <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>0.033112582781457</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="K18" t="n">
         <v>0.00198544010589014</v>
       </c>
       <c r="L18" t="n">
-        <v>16.6777041942605</v>
+        <v>16.7888888888889</v>
       </c>
       <c r="M18" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N18" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O18" t="n">
         <v>0.833333333333333</v>
@@ -3744,31 +3744,31 @@
         <v>31</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00000168295908849712</v>
+        <v>0.00000162770031541923</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0381257551908137</v>
+        <v>0.0368739229455073</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00181551215194351</v>
+        <v>0.0017559010926432</v>
       </c>
       <c r="I19" t="n">
         <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>0.033112582781457</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="K19" t="n">
         <v>0.00198544010589014</v>
       </c>
       <c r="L19" t="n">
-        <v>16.6777041942605</v>
+        <v>16.7888888888889</v>
       </c>
       <c r="M19" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N19" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O19" t="n">
         <v>0.833333333333333</v>
@@ -3800,31 +3800,31 @@
         <v>31</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00000168295908849712</v>
+        <v>0.00000162770031541923</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0381257551908137</v>
+        <v>0.0368739229455073</v>
       </c>
       <c r="H20" t="n">
-        <v>0.00181551215194351</v>
+        <v>0.0017559010926432</v>
       </c>
       <c r="I20" t="n">
         <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>0.033112582781457</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="K20" t="n">
         <v>0.00198544010589014</v>
       </c>
       <c r="L20" t="n">
-        <v>16.6777041942605</v>
+        <v>16.7888888888889</v>
       </c>
       <c r="M20" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N20" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O20" t="n">
         <v>0.833333333333333</v>
@@ -3856,31 +3856,31 @@
         <v>31</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00000168295908849712</v>
+        <v>0.00000162770031541923</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0381257551908137</v>
+        <v>0.0368739229455073</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00181551215194351</v>
+        <v>0.0017559010926432</v>
       </c>
       <c r="I21" t="n">
         <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>0.033112582781457</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="K21" t="n">
         <v>0.00198544010589014</v>
       </c>
       <c r="L21" t="n">
-        <v>16.6777041942605</v>
+        <v>16.7888888888889</v>
       </c>
       <c r="M21" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N21" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O21" t="n">
         <v>0.833333333333333</v>
@@ -3912,31 +3912,31 @@
         <v>31</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00000168295908849712</v>
+        <v>0.00000162770031541923</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0381257551908137</v>
+        <v>0.0368739229455073</v>
       </c>
       <c r="H22" t="n">
-        <v>0.00181551215194351</v>
+        <v>0.0017559010926432</v>
       </c>
       <c r="I22" t="n">
         <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>0.033112582781457</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="K22" t="n">
         <v>0.00198544010589014</v>
       </c>
       <c r="L22" t="n">
-        <v>16.6777041942605</v>
+        <v>16.7888888888889</v>
       </c>
       <c r="M22" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N22" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O22" t="n">
         <v>0.833333333333333</v>
@@ -3968,31 +3968,31 @@
         <v>31</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00000212516055334187</v>
+        <v>0.00000190911651859348</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0481433871754068</v>
+        <v>0.0432491256122168</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00218833578070031</v>
+        <v>0.00196586934600985</v>
       </c>
       <c r="I23" t="n">
         <v>20</v>
       </c>
       <c r="J23" t="n">
-        <v>0.132450331125828</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="K23" t="n">
         <v>0.0413633355393779</v>
       </c>
       <c r="L23" t="n">
-        <v>3.20211920529801</v>
+        <v>3.22346666666667</v>
       </c>
       <c r="M23" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N23" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O23" t="n">
         <v>0.16</v>
